--- a/va_facility_data_2025-02-20/Sault Saint Marie VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sault%20Saint%20Marie%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sault Saint Marie VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sault%20Saint%20Marie%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb67f517af7584c6996717a55c01d1e17"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R201d8139f1464604b046be5159dc5ee8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8ea51d98919941e79fcb41a980deb761"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re54535ca06ff482b82689f03585e811f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcb0420655bbd4bd9b4e7265b0aa924cf"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R190821673c064a7283cc6040c73225ea"/>
   </x:sheets>
 </x:workbook>
 </file>
